--- a/doc/主控PC与移载、接驳台通讯流程.xlsx
+++ b/doc/主控PC与移载、接驳台通讯流程.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
   </bookViews>
   <sheets>
     <sheet name="移载" sheetId="4" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="70">
   <si>
     <t>接板完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -347,12 +347,43 @@
     <t>PC指令解释</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>移动到左端向后接板？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动到右端向后接板？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>移载不应该只在一边接板吗？</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -404,6 +435,20 @@
     <font>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="134"/>
@@ -576,7 +621,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -645,6 +690,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -660,11 +711,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -675,18 +726,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1804,8 +1856,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="390525" y="285750"/>
-          <a:ext cx="1228725" cy="523874"/>
+          <a:off x="6964619" y="476250"/>
+          <a:ext cx="1226574" cy="530634"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -12184,7 +12236,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -12258,6 +12310,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -12292,6 +12345,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -12467,14 +12521,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="10"/>
     <col min="2" max="2" width="19.375" style="1" customWidth="1"/>
@@ -12487,274 +12541,279 @@
     <col min="13" max="16" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" s="10" customFormat="1" ht="18.75" customHeight="1">
-      <c r="B1" s="28" t="s">
+    <row r="1" spans="2:18" s="10" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
     </row>
-    <row r="2" spans="2:16" ht="18.75">
-      <c r="B2" s="30" t="s">
+    <row r="2" spans="2:18" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="G2" s="26" t="s">
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="G2" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
     </row>
-    <row r="4" spans="2:16">
-      <c r="B4" s="31" t="s">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="J3" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="O3" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="R3" s="39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B4" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
     </row>
-    <row r="5" spans="2:16">
-      <c r="B5" s="31"/>
-      <c r="C5" s="32" t="s">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B5" s="27"/>
+      <c r="C5" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
     </row>
-    <row r="7" spans="2:16">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
     </row>
-    <row r="8" spans="2:16">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
     </row>
-    <row r="10" spans="2:16">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
     </row>
-    <row r="11" spans="2:16">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
     </row>
-    <row r="13" spans="2:16">
-      <c r="B13" s="31" t="s">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B13" s="27" t="s">
         <v>37</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="26" t="s">
         <v>21</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="2:16">
-      <c r="B14" s="31"/>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B14" s="27"/>
       <c r="C14" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="32"/>
+      <c r="D14" s="26"/>
       <c r="E14" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="2:16">
-      <c r="B16" s="31" t="s">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B16" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
     </row>
-    <row r="17" spans="2:16">
-      <c r="B17" s="31"/>
-      <c r="C17" s="32" t="s">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B17" s="27"/>
+      <c r="C17" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
     </row>
-    <row r="19" spans="2:16">
-      <c r="B19" s="31" t="s">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B19" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
     </row>
-    <row r="20" spans="2:16">
-      <c r="B20" s="31"/>
-      <c r="C20" s="32" t="s">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B20" s="27"/>
+      <c r="C20" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
     </row>
-    <row r="21" spans="2:16">
-      <c r="B21" s="31"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B21" s="27"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
     </row>
-    <row r="22" spans="2:16">
-      <c r="B22" s="31"/>
-      <c r="C22" s="31" t="s">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B22" s="27"/>
+      <c r="C22" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
     </row>
-    <row r="23" spans="2:16" ht="14.25" customHeight="1">
-      <c r="B23" s="31"/>
+    <row r="23" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="27"/>
       <c r="C23" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="32" t="s">
+      <c r="D23" s="26" t="s">
         <v>21</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:16">
-      <c r="B24" s="31"/>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B24" s="27"/>
       <c r="C24" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="32"/>
+      <c r="D24" s="26"/>
       <c r="E24" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="2:16" ht="15" thickBot="1"/>
-    <row r="27" spans="2:16" ht="30" customHeight="1" thickBot="1">
+    <row r="26" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="2:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C27" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="2:16" ht="15" thickBot="1"/>
-    <row r="29" spans="2:16" ht="19.5" thickBot="1">
+    <row r="28" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="2:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C29" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="G29" s="26" t="s">
+      <c r="G29" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="27"/>
-      <c r="P29" s="27"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="29"/>
     </row>
-    <row r="32" spans="2:16">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C32" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="2:5" ht="15" thickBot="1"/>
-    <row r="34" spans="2:5" ht="15" thickBot="1">
+    <row r="33" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="2:5" ht="15" thickBot="1">
+    <row r="35" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D35" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="2:5" ht="15" thickBot="1">
+    <row r="36" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="2:5" ht="15" thickBot="1">
+    <row r="37" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E37" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="2:5" ht="15" thickBot="1">
+    <row r="38" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
         <v>48</v>
       </c>
       <c r="E38" s="11"/>
     </row>
-    <row r="39" spans="2:5" ht="15" thickBot="1">
+    <row r="39" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D39" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="2:5" ht="15" thickBot="1"/>
-    <row r="41" spans="2:5" ht="15" thickBot="1">
+    <row r="40" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D41" s="8" t="s">
         <v>51</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="B19:B24"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
     <mergeCell ref="G2:P2"/>
     <mergeCell ref="G29:P29"/>
     <mergeCell ref="B1:P1"/>
@@ -12771,6 +12830,12 @@
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="C16:E16"/>
     <mergeCell ref="C22:E22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12780,14 +12845,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.875" customWidth="1"/>
     <col min="2" max="2" width="10.375" customWidth="1"/>
@@ -12802,85 +12867,85 @@
     <col min="21" max="22" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="25.5">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:23" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
     </row>
-    <row r="2" spans="1:23">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
       <c r="I2" s="15"/>
     </row>
-    <row r="3" spans="1:23">
-      <c r="E3" s="31" t="s">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="E3" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="F3" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="1:23">
-      <c r="E4" s="31"/>
-      <c r="F4" s="32" t="s">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="E4" s="27"/>
+      <c r="F4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
       <c r="I4" s="7"/>
     </row>
-    <row r="6" spans="1:23">
-      <c r="A6" s="33" t="s">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A6" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="35"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="37"/>
       <c r="E6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="31" t="s">
+      <c r="F6" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
       <c r="I6" s="7"/>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="26" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="13" t="s">
@@ -12890,24 +12955,24 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="32"/>
+      <c r="B8" s="26"/>
       <c r="C8" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:23">
-      <c r="E9" s="31" t="s">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="E9" s="27" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G9" s="32" t="s">
+      <c r="G9" s="26" t="s">
         <v>21</v>
       </c>
       <c r="H9" s="4" t="s">
@@ -12915,27 +12980,27 @@
       </c>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:23">
-      <c r="A10" s="33" t="s">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A10" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="35"/>
-      <c r="E10" s="31"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="37"/>
+      <c r="E10" s="27"/>
       <c r="F10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="32"/>
+      <c r="G10" s="26"/>
       <c r="H10" s="5" t="s">
         <v>1</v>
       </c>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="26" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="13" t="s">
@@ -12943,44 +13008,44 @@
       </c>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="32"/>
+      <c r="B12" s="26"/>
       <c r="C12" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:23">
-      <c r="E13" s="31" t="s">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="E13" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="31" t="s">
+      <c r="F13" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:23">
-      <c r="E14" s="31"/>
-      <c r="F14" s="32" t="s">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="E14" s="27"/>
+      <c r="F14" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:23" ht="15" thickBot="1">
+    <row r="15" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E15" s="6"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="16"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
@@ -12988,31 +13053,31 @@
       <c r="H16" s="17"/>
       <c r="I16" s="18"/>
     </row>
-    <row r="17" spans="4:9">
+    <row r="17" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D17" s="19"/>
       <c r="E17" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F17" s="31" t="s">
+      <c r="F17" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
       <c r="I17" s="20"/>
     </row>
-    <row r="18" spans="4:9">
+    <row r="18" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D18" s="19"/>
       <c r="E18" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="32" t="s">
+      <c r="F18" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
       <c r="I18" s="21"/>
     </row>
-    <row r="19" spans="4:9">
+    <row r="19" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D19" s="19"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
@@ -13020,7 +13085,7 @@
       <c r="H19" s="7"/>
       <c r="I19" s="21"/>
     </row>
-    <row r="20" spans="4:9">
+    <row r="20" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D20" s="19"/>
       <c r="E20" s="13" t="s">
         <v>55</v>
@@ -13028,15 +13093,15 @@
       <c r="F20" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G20" s="32" t="s">
+      <c r="G20" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="H20" s="37" t="s">
+      <c r="H20" s="34" t="s">
         <v>24</v>
       </c>
       <c r="I20" s="22"/>
     </row>
-    <row r="21" spans="4:9">
+    <row r="21" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D21" s="19"/>
       <c r="E21" s="14" t="s">
         <v>19</v>
@@ -13044,11 +13109,11 @@
       <c r="F21" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="G21" s="32"/>
-      <c r="H21" s="37"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="34"/>
       <c r="I21" s="22"/>
     </row>
-    <row r="22" spans="4:9">
+    <row r="22" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D22" s="19"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
@@ -13056,7 +13121,7 @@
       <c r="H22" s="7"/>
       <c r="I22" s="21"/>
     </row>
-    <row r="23" spans="4:9">
+    <row r="23" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D23" s="19"/>
       <c r="E23" s="13" t="s">
         <v>56</v>
@@ -13064,7 +13129,7 @@
       <c r="F23" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G23" s="31" t="s">
+      <c r="G23" s="27" t="s">
         <v>27</v>
       </c>
       <c r="H23" s="13" t="s">
@@ -13072,7 +13137,7 @@
       </c>
       <c r="I23" s="20"/>
     </row>
-    <row r="24" spans="4:9">
+    <row r="24" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D24" s="19"/>
       <c r="E24" s="14" t="s">
         <v>25</v>
@@ -13080,13 +13145,13 @@
       <c r="F24" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="G24" s="32"/>
+      <c r="G24" s="26"/>
       <c r="H24" s="14" t="s">
         <v>3</v>
       </c>
       <c r="I24" s="21"/>
     </row>
-    <row r="25" spans="4:9">
+    <row r="25" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D25" s="19"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
@@ -13094,31 +13159,31 @@
       <c r="H25" s="7"/>
       <c r="I25" s="21"/>
     </row>
-    <row r="26" spans="4:9">
+    <row r="26" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D26" s="19"/>
       <c r="E26" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F26" s="31" t="s">
+      <c r="F26" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
       <c r="I26" s="20"/>
     </row>
-    <row r="27" spans="4:9">
+    <row r="27" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D27" s="19"/>
       <c r="E27" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="32" t="s">
+      <c r="F27" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
       <c r="I27" s="21"/>
     </row>
-    <row r="28" spans="4:9">
+    <row r="28" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D28" s="19"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
@@ -13126,31 +13191,31 @@
       <c r="H28" s="7"/>
       <c r="I28" s="21"/>
     </row>
-    <row r="29" spans="4:9">
+    <row r="29" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D29" s="19"/>
       <c r="E29" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="F29" s="31" t="s">
+      <c r="F29" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
       <c r="I29" s="20"/>
     </row>
-    <row r="30" spans="4:9">
+    <row r="30" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D30" s="19"/>
       <c r="E30" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F30" s="32" t="s">
+      <c r="F30" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
       <c r="I30" s="21"/>
     </row>
-    <row r="31" spans="4:9" ht="15" thickBot="1">
+    <row r="31" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D31" s="23"/>
       <c r="E31" s="24"/>
       <c r="F31" s="24"/>
@@ -13160,11 +13225,9 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="F4:H4"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="H20:H21"/>
     <mergeCell ref="G20:G21"/>
@@ -13181,9 +13244,11 @@
     <mergeCell ref="F6:H6"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="A10:C10"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="F27:H27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
